--- a/natmiOut/OldD4/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>187.778067575643</v>
+        <v>204.3437653333333</v>
       </c>
       <c r="H2">
-        <v>187.778067575643</v>
+        <v>613.0312959999999</v>
       </c>
       <c r="I2">
-        <v>0.1928569527073777</v>
+        <v>0.1758767975891587</v>
       </c>
       <c r="J2">
-        <v>0.1928569527073777</v>
+        <v>0.1775259368507247</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.20393682973</v>
+        <v>172.9098156666666</v>
       </c>
       <c r="N2">
-        <v>161.20393682973</v>
+        <v>518.7294469999999</v>
       </c>
       <c r="O2">
-        <v>0.4509684999778558</v>
+        <v>0.4524900325013766</v>
       </c>
       <c r="P2">
-        <v>0.4509684999778558</v>
+        <v>0.4688259813160829</v>
       </c>
       <c r="Q2">
-        <v>30270.56374347273</v>
+        <v>35333.04279641925</v>
       </c>
       <c r="R2">
-        <v>30270.56374347273</v>
+        <v>317997.3851677732</v>
       </c>
       <c r="S2">
-        <v>0.08697241067274641</v>
+        <v>0.07958249785735647</v>
       </c>
       <c r="T2">
-        <v>0.08697241067274641</v>
+        <v>0.08322877155309796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>187.778067575643</v>
+        <v>204.3437653333333</v>
       </c>
       <c r="H3">
-        <v>187.778067575643</v>
+        <v>613.0312959999999</v>
       </c>
       <c r="I3">
-        <v>0.1928569527073777</v>
+        <v>0.1758767975891587</v>
       </c>
       <c r="J3">
-        <v>0.1928569527073777</v>
+        <v>0.1775259368507247</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.0521608461166</v>
+        <v>46.15041300000001</v>
       </c>
       <c r="N3">
-        <v>41.0521608461166</v>
+        <v>138.451239</v>
       </c>
       <c r="O3">
-        <v>0.1148435439090875</v>
+        <v>0.120771639237527</v>
       </c>
       <c r="P3">
-        <v>0.1148435439090875</v>
+        <v>0.1251317779701883</v>
       </c>
       <c r="Q3">
-        <v>7708.695433488248</v>
+        <v>9430.549164108415</v>
       </c>
       <c r="R3">
-        <v>7708.695433488248</v>
+        <v>84874.94247697573</v>
       </c>
       <c r="S3">
-        <v>0.02214837591642255</v>
+        <v>0.02124092914868943</v>
       </c>
       <c r="T3">
-        <v>0.02214837591642255</v>
+        <v>0.02221413611395455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>187.778067575643</v>
+        <v>204.3437653333333</v>
       </c>
       <c r="H4">
-        <v>187.778067575643</v>
+        <v>613.0312959999999</v>
       </c>
       <c r="I4">
-        <v>0.1928569527073777</v>
+        <v>0.1758767975891587</v>
       </c>
       <c r="J4">
-        <v>0.1928569527073777</v>
+        <v>0.1775259368507247</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.2231438702039</v>
+        <v>64.30983099999999</v>
       </c>
       <c r="N4">
-        <v>58.2231438702039</v>
+        <v>192.929493</v>
       </c>
       <c r="O4">
-        <v>0.162879420760513</v>
+        <v>0.1682932655219863</v>
       </c>
       <c r="P4">
-        <v>0.162879420760513</v>
+        <v>0.1743690461446646</v>
       </c>
       <c r="Q4">
-        <v>10933.02944412553</v>
+        <v>13141.31301449032</v>
       </c>
       <c r="R4">
-        <v>10933.02944412553</v>
+        <v>118271.8171304129</v>
       </c>
       <c r="S4">
-        <v>0.03141242874661532</v>
+        <v>0.02959888059582892</v>
       </c>
       <c r="T4">
-        <v>0.03141242874661532</v>
+        <v>0.03095502827459883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>187.778067575643</v>
+        <v>204.3437653333333</v>
       </c>
       <c r="H5">
-        <v>187.778067575643</v>
+        <v>613.0312959999999</v>
       </c>
       <c r="I5">
-        <v>0.1928569527073777</v>
+        <v>0.1758767975891587</v>
       </c>
       <c r="J5">
-        <v>0.1928569527073777</v>
+        <v>0.1775259368507247</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.0969470292789</v>
+        <v>58.81429933333334</v>
       </c>
       <c r="N5">
-        <v>57.0969470292789</v>
+        <v>176.442898</v>
       </c>
       <c r="O5">
-        <v>0.1597288816978833</v>
+        <v>0.1539119344629323</v>
       </c>
       <c r="P5">
-        <v>0.1597288816978833</v>
+        <v>0.1594685153879524</v>
       </c>
       <c r="Q5">
-        <v>10721.55437762684</v>
+        <v>12018.33538121509</v>
       </c>
       <c r="R5">
-        <v>10721.55437762684</v>
+        <v>108165.0184309358</v>
       </c>
       <c r="S5">
-        <v>0.03080482538361101</v>
+        <v>0.027069538144093</v>
       </c>
       <c r="T5">
-        <v>0.03080482538361101</v>
+        <v>0.02830979759244046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>187.778067575643</v>
+        <v>204.3437653333333</v>
       </c>
       <c r="H6">
-        <v>187.778067575643</v>
+        <v>613.0312959999999</v>
       </c>
       <c r="I6">
-        <v>0.1928569527073777</v>
+        <v>0.1758767975891587</v>
       </c>
       <c r="J6">
-        <v>0.1928569527073777</v>
+        <v>0.1775259368507247</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.8854453029696</v>
+        <v>39.945198</v>
       </c>
       <c r="N6">
-        <v>39.8854453029696</v>
+        <v>79.890396</v>
       </c>
       <c r="O6">
-        <v>0.1115796536546603</v>
+        <v>0.1045331282761778</v>
       </c>
       <c r="P6">
-        <v>0.1115796536546603</v>
+        <v>0.07220467918111168</v>
       </c>
       <c r="Q6">
-        <v>7489.611843385638</v>
+        <v>8162.552166305534</v>
       </c>
       <c r="R6">
-        <v>7489.611843385638</v>
+        <v>48975.31299783321</v>
       </c>
       <c r="S6">
-        <v>0.02151891198798241</v>
+        <v>0.01838495184319089</v>
       </c>
       <c r="T6">
-        <v>0.02151891198798241</v>
+        <v>0.01281820331663287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>146.176435588617</v>
+        <v>161.8155033333333</v>
       </c>
       <c r="H7">
-        <v>146.176435588617</v>
+        <v>485.44651</v>
       </c>
       <c r="I7">
-        <v>0.1501301099176061</v>
+        <v>0.1392731140102079</v>
       </c>
       <c r="J7">
-        <v>0.1501301099176061</v>
+        <v>0.1405790324914581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>161.20393682973</v>
+        <v>172.9098156666666</v>
       </c>
       <c r="N7">
-        <v>161.20393682973</v>
+        <v>518.7294469999999</v>
       </c>
       <c r="O7">
-        <v>0.4509684999778558</v>
+        <v>0.4524900325013766</v>
       </c>
       <c r="P7">
-        <v>0.4509684999778558</v>
+        <v>0.4688259813160829</v>
       </c>
       <c r="Q7">
-        <v>23564.21688862251</v>
+        <v>27979.48885337555</v>
       </c>
       <c r="R7">
-        <v>23564.21688862251</v>
+        <v>251815.3996803799</v>
       </c>
       <c r="S7">
-        <v>0.06770395047105346</v>
+        <v>0.06301969588504691</v>
       </c>
       <c r="T7">
-        <v>0.06770395047105346</v>
+        <v>0.06590710286027338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>146.176435588617</v>
+        <v>161.8155033333333</v>
       </c>
       <c r="H8">
-        <v>146.176435588617</v>
+        <v>485.44651</v>
       </c>
       <c r="I8">
-        <v>0.1501301099176061</v>
+        <v>0.1392731140102079</v>
       </c>
       <c r="J8">
-        <v>0.1501301099176061</v>
+        <v>0.1405790324914581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.0521608461166</v>
+        <v>46.15041300000001</v>
       </c>
       <c r="N8">
-        <v>41.0521608461166</v>
+        <v>138.451239</v>
       </c>
       <c r="O8">
-        <v>0.1148435439090875</v>
+        <v>0.120771639237527</v>
       </c>
       <c r="P8">
-        <v>0.1148435439090875</v>
+        <v>0.1251317779701883</v>
       </c>
       <c r="Q8">
-        <v>6000.858545695908</v>
+        <v>7467.852308636211</v>
       </c>
       <c r="R8">
-        <v>6000.858545695908</v>
+        <v>67210.6707777259</v>
       </c>
       <c r="S8">
-        <v>0.01724147387039874</v>
+        <v>0.0168202422807278</v>
       </c>
       <c r="T8">
-        <v>0.01724147387039874</v>
+        <v>0.01759090428098503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>146.176435588617</v>
+        <v>161.8155033333333</v>
       </c>
       <c r="H9">
-        <v>146.176435588617</v>
+        <v>485.44651</v>
       </c>
       <c r="I9">
-        <v>0.1501301099176061</v>
+        <v>0.1392731140102079</v>
       </c>
       <c r="J9">
-        <v>0.1501301099176061</v>
+        <v>0.1405790324914581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.2231438702039</v>
+        <v>64.30983099999999</v>
       </c>
       <c r="N9">
-        <v>58.2231438702039</v>
+        <v>192.929493</v>
       </c>
       <c r="O9">
-        <v>0.162879420760513</v>
+        <v>0.1682932655219863</v>
       </c>
       <c r="P9">
-        <v>0.162879420760513</v>
+        <v>0.1743690461446646</v>
       </c>
       <c r="Q9">
-        <v>8510.851639709641</v>
+        <v>10406.3276725466</v>
       </c>
       <c r="R9">
-        <v>8510.851639709641</v>
+        <v>93656.94905291942</v>
       </c>
       <c r="S9">
-        <v>0.02445310534209183</v>
+        <v>0.02343872715619379</v>
       </c>
       <c r="T9">
-        <v>0.02445310534209183</v>
+        <v>0.02451263180347537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>146.176435588617</v>
+        <v>161.8155033333333</v>
       </c>
       <c r="H10">
-        <v>146.176435588617</v>
+        <v>485.44651</v>
       </c>
       <c r="I10">
-        <v>0.1501301099176061</v>
+        <v>0.1392731140102079</v>
       </c>
       <c r="J10">
-        <v>0.1501301099176061</v>
+        <v>0.1405790324914581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.0969470292789</v>
+        <v>58.81429933333334</v>
       </c>
       <c r="N10">
-        <v>57.0969470292789</v>
+        <v>176.442898</v>
       </c>
       <c r="O10">
-        <v>0.1597288816978833</v>
+        <v>0.1539119344629323</v>
       </c>
       <c r="P10">
-        <v>0.1597288816978833</v>
+        <v>0.1594685153879524</v>
       </c>
       <c r="Q10">
-        <v>8346.228199732064</v>
+        <v>9517.065449820666</v>
       </c>
       <c r="R10">
-        <v>8346.228199732064</v>
+        <v>85653.58904838598</v>
       </c>
       <c r="S10">
-        <v>0.02398011456631953</v>
+        <v>0.02143579439598762</v>
       </c>
       <c r="T10">
-        <v>0.02398011456631953</v>
+        <v>0.02241792960608755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>146.176435588617</v>
+        <v>161.8155033333333</v>
       </c>
       <c r="H11">
-        <v>146.176435588617</v>
+        <v>485.44651</v>
       </c>
       <c r="I11">
-        <v>0.1501301099176061</v>
+        <v>0.1392731140102079</v>
       </c>
       <c r="J11">
-        <v>0.1501301099176061</v>
+        <v>0.1405790324914581</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.8854453029696</v>
+        <v>39.945198</v>
       </c>
       <c r="N11">
-        <v>39.8854453029696</v>
+        <v>79.890396</v>
       </c>
       <c r="O11">
-        <v>0.1115796536546603</v>
+        <v>0.1045331282761778</v>
       </c>
       <c r="P11">
-        <v>0.1115796536546603</v>
+        <v>0.07220467918111168</v>
       </c>
       <c r="Q11">
-        <v>5830.312226252842</v>
+        <v>6463.75232011966</v>
       </c>
       <c r="R11">
-        <v>5830.312226252842</v>
+        <v>38782.51392071796</v>
       </c>
       <c r="S11">
-        <v>0.01675146566774258</v>
+        <v>0.0145586542922518</v>
       </c>
       <c r="T11">
-        <v>0.01675146566774258</v>
+        <v>0.01015046394063681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>326.820260790367</v>
+        <v>467.064364</v>
       </c>
       <c r="H12">
-        <v>326.820260790367</v>
+        <v>1401.193092</v>
       </c>
       <c r="I12">
-        <v>0.3356598584319244</v>
+        <v>0.4019979981984663</v>
       </c>
       <c r="J12">
-        <v>0.3356598584319244</v>
+        <v>0.4057674020708785</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>161.20393682973</v>
+        <v>172.9098156666666</v>
       </c>
       <c r="N12">
-        <v>161.20393682973</v>
+        <v>518.7294469999999</v>
       </c>
       <c r="O12">
-        <v>0.4509684999778558</v>
+        <v>0.4524900325013766</v>
       </c>
       <c r="P12">
-        <v>0.4509684999778558</v>
+        <v>0.4688259813160829</v>
       </c>
       <c r="Q12">
-        <v>52684.7126751262</v>
+        <v>80760.01308370889</v>
       </c>
       <c r="R12">
-        <v>52684.7126751262</v>
+        <v>726840.11775338</v>
       </c>
       <c r="S12">
-        <v>0.1513720228598244</v>
+        <v>0.1819000872703124</v>
       </c>
       <c r="T12">
-        <v>0.1513720228598244</v>
+        <v>0.1902343004619572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>326.820260790367</v>
+        <v>467.064364</v>
       </c>
       <c r="H13">
-        <v>326.820260790367</v>
+        <v>1401.193092</v>
       </c>
       <c r="I13">
-        <v>0.3356598584319244</v>
+        <v>0.4019979981984663</v>
       </c>
       <c r="J13">
-        <v>0.3356598584319244</v>
+        <v>0.4057674020708785</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.0521608461166</v>
+        <v>46.15041300000001</v>
       </c>
       <c r="N13">
-        <v>41.0521608461166</v>
+        <v>138.451239</v>
       </c>
       <c r="O13">
-        <v>0.1148435439090875</v>
+        <v>0.120771639237527</v>
       </c>
       <c r="P13">
-        <v>0.1148435439090875</v>
+        <v>0.1251317779701883</v>
       </c>
       <c r="Q13">
-        <v>13416.67791373592</v>
+        <v>21555.21329618234</v>
       </c>
       <c r="R13">
-        <v>13416.67791373592</v>
+        <v>193996.919665641</v>
       </c>
       <c r="S13">
-        <v>0.03854836769034481</v>
+        <v>0.0485499572126332</v>
       </c>
       <c r="T13">
-        <v>0.03854836769034481</v>
+        <v>0.05077439646347329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>326.820260790367</v>
+        <v>467.064364</v>
       </c>
       <c r="H14">
-        <v>326.820260790367</v>
+        <v>1401.193092</v>
       </c>
       <c r="I14">
-        <v>0.3356598584319244</v>
+        <v>0.4019979981984663</v>
       </c>
       <c r="J14">
-        <v>0.3356598584319244</v>
+        <v>0.4057674020708785</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.2231438702039</v>
+        <v>64.30983099999999</v>
       </c>
       <c r="N14">
-        <v>58.2231438702039</v>
+        <v>192.929493</v>
       </c>
       <c r="O14">
-        <v>0.162879420760513</v>
+        <v>0.1682932655219863</v>
       </c>
       <c r="P14">
-        <v>0.162879420760513</v>
+        <v>0.1743690461446646</v>
       </c>
       <c r="Q14">
-        <v>19028.5030636951</v>
+        <v>30036.83031496248</v>
       </c>
       <c r="R14">
-        <v>19028.5030636951</v>
+        <v>270331.4728346623</v>
       </c>
       <c r="S14">
-        <v>0.05467208331394763</v>
+        <v>0.06765355585012146</v>
       </c>
       <c r="T14">
-        <v>0.05467208331394763</v>
+        <v>0.07075327485569768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>326.820260790367</v>
+        <v>467.064364</v>
       </c>
       <c r="H15">
-        <v>326.820260790367</v>
+        <v>1401.193092</v>
       </c>
       <c r="I15">
-        <v>0.3356598584319244</v>
+        <v>0.4019979981984663</v>
       </c>
       <c r="J15">
-        <v>0.3356598584319244</v>
+        <v>0.4057674020708785</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.0969470292789</v>
+        <v>58.81429933333334</v>
       </c>
       <c r="N15">
-        <v>57.0969470292789</v>
+        <v>176.442898</v>
       </c>
       <c r="O15">
-        <v>0.1597288816978833</v>
+        <v>0.1539119344629323</v>
       </c>
       <c r="P15">
-        <v>0.1597288816978833</v>
+        <v>0.1594685153879524</v>
       </c>
       <c r="Q15">
-        <v>18660.4391184427</v>
+        <v>27470.06331222896</v>
       </c>
       <c r="R15">
-        <v>18660.4391184427</v>
+        <v>247230.5698100606</v>
       </c>
       <c r="S15">
-        <v>0.05361457381820111</v>
+        <v>0.06187228955295231</v>
       </c>
       <c r="T15">
-        <v>0.05361457381820111</v>
+        <v>0.06470712520106935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>326.820260790367</v>
+        <v>467.064364</v>
       </c>
       <c r="H16">
-        <v>326.820260790367</v>
+        <v>1401.193092</v>
       </c>
       <c r="I16">
-        <v>0.3356598584319244</v>
+        <v>0.4019979981984663</v>
       </c>
       <c r="J16">
-        <v>0.3356598584319244</v>
+        <v>0.4057674020708785</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>39.8854453029696</v>
+        <v>39.945198</v>
       </c>
       <c r="N16">
-        <v>39.8854453029696</v>
+        <v>79.890396</v>
       </c>
       <c r="O16">
-        <v>0.1115796536546603</v>
+        <v>0.1045331282761778</v>
       </c>
       <c r="P16">
-        <v>0.1115796536546603</v>
+        <v>0.07220467918111168</v>
       </c>
       <c r="Q16">
-        <v>13035.37163565644</v>
+        <v>18656.97849872407</v>
       </c>
       <c r="R16">
-        <v>13035.37163565644</v>
+        <v>111941.8709923444</v>
       </c>
       <c r="S16">
-        <v>0.03745281074960644</v>
+        <v>0.04202210831244697</v>
       </c>
       <c r="T16">
-        <v>0.03745281074960644</v>
+        <v>0.02929830508868093</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>280.598267510219</v>
+        <v>296.2543436666667</v>
       </c>
       <c r="H17">
-        <v>280.598267510219</v>
+        <v>888.763031</v>
       </c>
       <c r="I17">
-        <v>0.2881876861640993</v>
+        <v>0.2549833862118423</v>
       </c>
       <c r="J17">
-        <v>0.2881876861640993</v>
+        <v>0.2573742821060879</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>161.20393682973</v>
+        <v>172.9098156666666</v>
       </c>
       <c r="N17">
-        <v>161.20393682973</v>
+        <v>518.7294469999999</v>
       </c>
       <c r="O17">
-        <v>0.4509684999778558</v>
+        <v>0.4524900325013766</v>
       </c>
       <c r="P17">
-        <v>0.4509684999778558</v>
+        <v>0.4688259813160829</v>
       </c>
       <c r="Q17">
-        <v>45233.54539024902</v>
+        <v>51225.28395385265</v>
       </c>
       <c r="R17">
-        <v>45233.54539024902</v>
+        <v>461027.5555846738</v>
       </c>
       <c r="S17">
-        <v>0.1299635685415129</v>
+        <v>0.1153774407143076</v>
       </c>
       <c r="T17">
-        <v>0.1299635685415129</v>
+        <v>0.120663750373909</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>280.598267510219</v>
+        <v>296.2543436666667</v>
       </c>
       <c r="H18">
-        <v>280.598267510219</v>
+        <v>888.763031</v>
       </c>
       <c r="I18">
-        <v>0.2881876861640993</v>
+        <v>0.2549833862118423</v>
       </c>
       <c r="J18">
-        <v>0.2881876861640993</v>
+        <v>0.2573742821060879</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.0521608461166</v>
+        <v>46.15041300000001</v>
       </c>
       <c r="N18">
-        <v>41.0521608461166</v>
+        <v>138.451239</v>
       </c>
       <c r="O18">
-        <v>0.1148435439090875</v>
+        <v>0.120771639237527</v>
       </c>
       <c r="P18">
-        <v>0.1148435439090875</v>
+        <v>0.1251317779701883</v>
       </c>
       <c r="Q18">
-        <v>11519.16521097116</v>
+        <v>13672.2603132606</v>
       </c>
       <c r="R18">
-        <v>11519.16521097116</v>
+        <v>123050.3428193454</v>
       </c>
       <c r="S18">
-        <v>0.03309649519004507</v>
+        <v>0.03079476153113963</v>
       </c>
       <c r="T18">
-        <v>0.03309649519004507</v>
+        <v>0.0322057015237356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>280.598267510219</v>
+        <v>296.2543436666667</v>
       </c>
       <c r="H19">
-        <v>280.598267510219</v>
+        <v>888.763031</v>
       </c>
       <c r="I19">
-        <v>0.2881876861640993</v>
+        <v>0.2549833862118423</v>
       </c>
       <c r="J19">
-        <v>0.2881876861640993</v>
+        <v>0.2573742821060879</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.2231438702039</v>
+        <v>64.30983099999999</v>
       </c>
       <c r="N19">
-        <v>58.2231438702039</v>
+        <v>192.929493</v>
       </c>
       <c r="O19">
-        <v>0.162879420760513</v>
+        <v>0.1682932655219863</v>
       </c>
       <c r="P19">
-        <v>0.162879420760513</v>
+        <v>0.1743690461446646</v>
       </c>
       <c r="Q19">
-        <v>16337.31329897744</v>
+        <v>19052.06677421925</v>
       </c>
       <c r="R19">
-        <v>16337.31329897744</v>
+        <v>171468.6009679733</v>
       </c>
       <c r="S19">
-        <v>0.04693984339272098</v>
+        <v>0.04291198671944475</v>
       </c>
       <c r="T19">
-        <v>0.04693984339272098</v>
+        <v>0.04487810807300637</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>280.598267510219</v>
+        <v>296.2543436666667</v>
       </c>
       <c r="H20">
-        <v>280.598267510219</v>
+        <v>888.763031</v>
       </c>
       <c r="I20">
-        <v>0.2881876861640993</v>
+        <v>0.2549833862118423</v>
       </c>
       <c r="J20">
-        <v>0.2881876861640993</v>
+        <v>0.2573742821060879</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.0969470292789</v>
+        <v>58.81429933333334</v>
       </c>
       <c r="N20">
-        <v>57.0969470292789</v>
+        <v>176.442898</v>
       </c>
       <c r="O20">
-        <v>0.1597288816978833</v>
+        <v>0.1539119344629323</v>
       </c>
       <c r="P20">
-        <v>0.1597288816978833</v>
+        <v>0.1594685153879524</v>
       </c>
       <c r="Q20">
-        <v>16021.30441653841</v>
+        <v>17423.99164721154</v>
       </c>
       <c r="R20">
-        <v>16021.30441653841</v>
+        <v>156815.9248249038</v>
       </c>
       <c r="S20">
-        <v>0.04603189683009214</v>
+        <v>0.03924498622777362</v>
       </c>
       <c r="T20">
-        <v>0.04603189683009214</v>
+        <v>0.04104309466649789</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>280.598267510219</v>
+        <v>296.2543436666667</v>
       </c>
       <c r="H21">
-        <v>280.598267510219</v>
+        <v>888.763031</v>
       </c>
       <c r="I21">
-        <v>0.2881876861640993</v>
+        <v>0.2549833862118423</v>
       </c>
       <c r="J21">
-        <v>0.2881876861640993</v>
+        <v>0.2573742821060879</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>39.8854453029696</v>
+        <v>39.945198</v>
       </c>
       <c r="N21">
-        <v>39.8854453029696</v>
+        <v>79.890396</v>
       </c>
       <c r="O21">
-        <v>0.1115796536546603</v>
+        <v>0.1045331282761778</v>
       </c>
       <c r="P21">
-        <v>0.1115796536546603</v>
+        <v>0.07220467918111168</v>
       </c>
       <c r="Q21">
-        <v>11191.78685088687</v>
+        <v>11833.93841612505</v>
       </c>
       <c r="R21">
-        <v>11191.78685088687</v>
+        <v>71003.63049675027</v>
       </c>
       <c r="S21">
-        <v>0.03215588220972814</v>
+        <v>0.0266542110191767</v>
       </c>
       <c r="T21">
-        <v>0.03215588220972814</v>
+        <v>0.01858362746893901</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.2919826275371</v>
+        <v>32.379461</v>
       </c>
       <c r="H22">
-        <v>32.2919826275371</v>
+        <v>64.758922</v>
       </c>
       <c r="I22">
-        <v>0.03316539277899245</v>
+        <v>0.02786870399032479</v>
       </c>
       <c r="J22">
-        <v>0.03316539277899245</v>
+        <v>0.0187533464808508</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>161.20393682973</v>
+        <v>172.9098156666666</v>
       </c>
       <c r="N22">
-        <v>161.20393682973</v>
+        <v>518.7294469999999</v>
       </c>
       <c r="O22">
-        <v>0.4509684999778558</v>
+        <v>0.4524900325013766</v>
       </c>
       <c r="P22">
-        <v>0.4509684999778558</v>
+        <v>0.4688259813160829</v>
       </c>
       <c r="Q22">
-        <v>5205.59472759623</v>
+        <v>5598.726632896021</v>
       </c>
       <c r="R22">
-        <v>5205.59472759623</v>
+        <v>33592.35979737613</v>
       </c>
       <c r="S22">
-        <v>0.01495654743271864</v>
+        <v>0.01261031077435331</v>
       </c>
       <c r="T22">
-        <v>0.01495654743271864</v>
+        <v>0.008792056066845388</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.2919826275371</v>
+        <v>32.379461</v>
       </c>
       <c r="H23">
-        <v>32.2919826275371</v>
+        <v>64.758922</v>
       </c>
       <c r="I23">
-        <v>0.03316539277899245</v>
+        <v>0.02786870399032479</v>
       </c>
       <c r="J23">
-        <v>0.03316539277899245</v>
+        <v>0.0187533464808508</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.0521608461166</v>
+        <v>46.15041300000001</v>
       </c>
       <c r="N23">
-        <v>41.0521608461166</v>
+        <v>138.451239</v>
       </c>
       <c r="O23">
-        <v>0.1148435439090875</v>
+        <v>0.120771639237527</v>
       </c>
       <c r="P23">
-        <v>0.1148435439090875</v>
+        <v>0.1251317779701883</v>
       </c>
       <c r="Q23">
-        <v>1325.655664865656</v>
+        <v>1494.325497867393</v>
       </c>
       <c r="R23">
-        <v>1325.655664865656</v>
+        <v>8965.952987204359</v>
       </c>
       <c r="S23">
-        <v>0.003808831241876353</v>
+        <v>0.003365749064336935</v>
       </c>
       <c r="T23">
-        <v>0.003808831241876353</v>
+        <v>0.002346639588039835</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.2919826275371</v>
+        <v>32.379461</v>
       </c>
       <c r="H24">
-        <v>32.2919826275371</v>
+        <v>64.758922</v>
       </c>
       <c r="I24">
-        <v>0.03316539277899245</v>
+        <v>0.02786870399032479</v>
       </c>
       <c r="J24">
-        <v>0.03316539277899245</v>
+        <v>0.0187533464808508</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.2231438702039</v>
+        <v>64.30983099999999</v>
       </c>
       <c r="N24">
-        <v>58.2231438702039</v>
+        <v>192.929493</v>
       </c>
       <c r="O24">
-        <v>0.162879420760513</v>
+        <v>0.1682932655219863</v>
       </c>
       <c r="P24">
-        <v>0.162879420760513</v>
+        <v>0.1743690461446646</v>
       </c>
       <c r="Q24">
-        <v>1880.140750377218</v>
+        <v>2082.317664781091</v>
       </c>
       <c r="R24">
-        <v>1880.140750377218</v>
+        <v>12493.90598868655</v>
       </c>
       <c r="S24">
-        <v>0.005401959965137189</v>
+        <v>0.004690115200397369</v>
       </c>
       <c r="T24">
-        <v>0.005401959965137189</v>
+        <v>0.003270003137886358</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.2919826275371</v>
+        <v>32.379461</v>
       </c>
       <c r="H25">
-        <v>32.2919826275371</v>
+        <v>64.758922</v>
       </c>
       <c r="I25">
-        <v>0.03316539277899245</v>
+        <v>0.02786870399032479</v>
       </c>
       <c r="J25">
-        <v>0.03316539277899245</v>
+        <v>0.0187533464808508</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.0969470292789</v>
+        <v>58.81429933333334</v>
       </c>
       <c r="N25">
-        <v>57.0969470292789</v>
+        <v>176.442898</v>
       </c>
       <c r="O25">
-        <v>0.1597288816978833</v>
+        <v>0.1539119344629323</v>
       </c>
       <c r="P25">
-        <v>0.1597288816978833</v>
+        <v>0.1594685153879524</v>
       </c>
       <c r="Q25">
-        <v>1843.77362155488</v>
+        <v>1904.375311505993</v>
       </c>
       <c r="R25">
-        <v>1843.77362155488</v>
+        <v>11426.25186903596</v>
       </c>
       <c r="S25">
-        <v>0.005297471099659517</v>
+        <v>0.004289326142125728</v>
       </c>
       <c r="T25">
-        <v>0.005297471099659517</v>
+        <v>0.002990568321857159</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.2919826275371</v>
+        <v>32.379461</v>
       </c>
       <c r="H26">
-        <v>32.2919826275371</v>
+        <v>64.758922</v>
       </c>
       <c r="I26">
-        <v>0.03316539277899245</v>
+        <v>0.02786870399032479</v>
       </c>
       <c r="J26">
-        <v>0.03316539277899245</v>
+        <v>0.0187533464808508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>39.8854453029696</v>
+        <v>39.945198</v>
       </c>
       <c r="N26">
-        <v>39.8854453029696</v>
+        <v>79.890396</v>
       </c>
       <c r="O26">
-        <v>0.1115796536546603</v>
+        <v>0.1045331282761778</v>
       </c>
       <c r="P26">
-        <v>0.1115796536546603</v>
+        <v>0.07220467918111168</v>
       </c>
       <c r="Q26">
-        <v>1287.980106815076</v>
+        <v>1293.403980778278</v>
       </c>
       <c r="R26">
-        <v>1287.980106815076</v>
+        <v>5173.615923113111</v>
       </c>
       <c r="S26">
-        <v>0.00370058303960075</v>
+        <v>0.002913202809111449</v>
       </c>
       <c r="T26">
-        <v>0.00370058303960075</v>
+        <v>0.001354079366222062</v>
       </c>
     </row>
   </sheetData>
